--- a/Data/Result.xlsx
+++ b/Data/Result.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangweicheng/Dropbox/My Mac (王伟程的MacBook Pro)/Desktop/reverse_kregret/VLDB_submission/upload/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangweicheng/Dropbox/My Mac (王伟程的MacBook Pro)/Desktop/reverse_kregret/ICDE_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFC5FF9-4DD0-EF42-86D3-4AA704BAFD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695A2899-90CB-5A4C-9F59-4A957AE8F927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="2280" windowWidth="27540" windowHeight="16820" xr2:uid="{EFFEBD60-F860-E048-9CF4-9C7EA660E9F3}"/>
+    <workbookView xWindow="14820" yWindow="3440" windowWidth="21260" windowHeight="16820" activeTab="4" xr2:uid="{EFFEBD60-F860-E048-9CF4-9C7EA660E9F3}"/>
   </bookViews>
   <sheets>
     <sheet name="userStudy" sheetId="12" r:id="rId1"/>
-    <sheet name="2D" sheetId="1" r:id="rId2"/>
-    <sheet name="4D" sheetId="3" r:id="rId3"/>
-    <sheet name="accuracy" sheetId="11" r:id="rId4"/>
-    <sheet name="dim" sheetId="4" r:id="rId5"/>
-    <sheet name="size" sheetId="5" r:id="rId6"/>
-    <sheet name="type" sheetId="6" r:id="rId7"/>
-    <sheet name="island" sheetId="7" r:id="rId8"/>
-    <sheet name="weather" sheetId="8" r:id="rId9"/>
-    <sheet name="car" sheetId="9" r:id="rId10"/>
-    <sheet name="nba" sheetId="10" r:id="rId11"/>
+    <sheet name="Result Comparison (UserStudy)" sheetId="14" r:id="rId2"/>
+    <sheet name="2D" sheetId="1" r:id="rId3"/>
+    <sheet name="4D" sheetId="3" r:id="rId4"/>
+    <sheet name="Result Comparison (4D)" sheetId="13" r:id="rId5"/>
+    <sheet name="accuracy" sheetId="11" r:id="rId6"/>
+    <sheet name="dim" sheetId="4" r:id="rId7"/>
+    <sheet name="size" sheetId="5" r:id="rId8"/>
+    <sheet name="type" sheetId="6" r:id="rId9"/>
+    <sheet name="island" sheetId="7" r:id="rId10"/>
+    <sheet name="weather" sheetId="8" r:id="rId11"/>
+    <sheet name="car" sheetId="9" r:id="rId12"/>
+    <sheet name="nba" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
   <si>
     <t>size</t>
   </si>
@@ -119,20 +121,39 @@
   <si>
     <t>The average rank</t>
   </si>
+  <si>
+    <t>Precison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -156,13 +177,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -171,9 +192,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -189,7 +211,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -487,20 +509,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E21239-6F95-3145-B8E4-521E48D1D286}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -511,7 +533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>65.333333330000002</v>
       </c>
@@ -522,19 +544,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -545,7 +567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>36.604999999999997</v>
       </c>
@@ -557,11 +579,662 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B924CD-0A7B-9E43-A22A-41118BA36D3C}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7.4177300000000004E-4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.1317300000000001E-3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.46535E-3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7.5403399999999995E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.5216099999999997E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="3">
+        <v>8.53935E-4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.4428100000000001E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.7677000000000001E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.3211899999999998E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.6265400000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>8.8396999999999998E-4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.3386800000000001E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.7428700000000001E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3.9852400000000003E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5.2072899999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8.3083099999999997E-4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.35286E-3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.6360000000000001E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.4986700000000003E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.1501899999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.6285099999999999E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.63345E-3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.6236499999999999E-3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.69424E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.8029499999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2.12802E-4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2.27853E-4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.4616900000000002E-4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.00506E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.1821100000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6.8219799999999996E-4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.4325700000000005E-4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8.2962699999999999E-4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.9436700000000001E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.79378E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>8.8396999999999998E-4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.3386800000000001E-3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.7428700000000001E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3.9852400000000003E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5.2072899999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.34268E-3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2.1368300000000002E-3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2.73222E-3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6.2848200000000007E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>8.9144700000000007E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.4210900000000001E-3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3.4103599999999999E-3</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4.7453E-3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8.9515399999999995E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.5247200000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.83271E-3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4.3848699999999999E-3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.7045500000000001E-3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.104864</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2.0428399999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.04754E-3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5.2185399999999998E-3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6.6069099999999997E-3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.13270199999999999</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2.9472499999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.51176E-3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7.5586999999999998E-3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>9.7741400000000006E-3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.15165799999999999</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3.8052599999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.9275E-3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8.0362200000000002E-3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>9.9253399999999995E-3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.184277</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.9853099999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC99850F-415F-1B48-99DB-A77329AE63A0}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.15400700000000001</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.131166</v>
+      </c>
+      <c r="D2" s="3">
+        <v>17.365500000000001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.11924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.39941199999999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.16685900000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>16.910699999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.12364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.49416599999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.173039</v>
+      </c>
+      <c r="D4" s="3">
+        <v>13.741400000000001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.1096999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.70229799999999998</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.18796499999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9.3579699999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.1008800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.83031999999999995</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.19081799999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8.1314200000000003</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.0696699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.7104099999999999E-3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9.3870299999999993E-3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.2889199999999997E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.83329E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.10263600000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.07118E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.9792799999999999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.108099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.49416599999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.173039</v>
+      </c>
+      <c r="D12" s="3">
+        <v>13.741400000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.1096999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.4153</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.31789099999999998</v>
+      </c>
+      <c r="D13" s="3">
+        <v>36.399500000000003</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4.5809100000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2.9925999999999999</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.62106700000000004</v>
+      </c>
+      <c r="D14" s="3">
+        <v>82.889899999999997</v>
+      </c>
+      <c r="E14" s="3">
+        <v>14.265499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4.8463399999999996</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.72463500000000003</v>
+      </c>
+      <c r="D15" s="3">
+        <v>147.20599999999999</v>
+      </c>
+      <c r="E15" s="3">
+        <v>35.1203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3">
+        <v>7.31379</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.86313200000000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>208.929</v>
+      </c>
+      <c r="E16" s="3">
+        <v>77.808899999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3">
+        <v>11.131</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.13941</v>
+      </c>
+      <c r="D17" s="3">
+        <v>347.74799999999999</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3">
+        <v>13.792400000000001</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.20336</v>
+      </c>
+      <c r="D18" s="3">
+        <v>393.51400000000001</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5571CD47-0332-1642-9A64-B3A17AB02B38}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -569,9 +1242,9 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -588,7 +1261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -605,7 +1278,7 @@
         <v>0.55658600000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="5">
         <v>0.05</v>
       </c>
@@ -622,7 +1295,7 @@
         <v>0.56304399999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>0.1</v>
       </c>
@@ -639,7 +1312,7 @@
         <v>0.56086899999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>0.15</v>
       </c>
@@ -656,7 +1329,7 @@
         <v>0.572384</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>0.2</v>
       </c>
@@ -673,21 +1346,21 @@
         <v>0.66291</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -704,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -721,7 +1394,7 @@
         <v>4.7085499999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -738,7 +1411,7 @@
         <v>0.86049900000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -755,7 +1428,7 @@
         <v>14.589600000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>15</v>
       </c>
@@ -772,7 +1445,7 @@
         <v>77.524199999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -789,7 +1462,7 @@
         <v>188.029</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>25</v>
       </c>
@@ -806,7 +1479,7 @@
         <v>361.49099999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>30</v>
       </c>
@@ -823,7 +1496,7 @@
         <v>958.80799999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>35</v>
       </c>
@@ -838,7 +1511,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>40</v>
       </c>
@@ -854,11 +1527,12 @@
       <c r="E18" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BA600E-17A9-A847-AA8C-292BC72A2FFE}">
   <dimension ref="A1:E51"/>
   <sheetViews>
@@ -866,9 +1540,9 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -885,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -902,7 +1576,7 @@
         <v>1.2614099999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="5">
         <v>0.05</v>
       </c>
@@ -919,7 +1593,7 @@
         <v>1.2477400000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>0.1</v>
       </c>
@@ -936,7 +1610,7 @@
         <v>1.21228</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>0.15</v>
       </c>
@@ -953,7 +1627,7 @@
         <v>1.22987</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>0.2</v>
       </c>
@@ -970,21 +1644,21 @@
         <v>1.2281599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1001,7 +1675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1018,7 +1692,7 @@
         <v>7.3274500000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1035,7 +1709,7 @@
         <v>0.13636999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1052,7 +1726,7 @@
         <v>1.1371899999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>15</v>
       </c>
@@ -1069,7 +1743,7 @@
         <v>5.5847699999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -1086,7 +1760,7 @@
         <v>14.7422</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>25</v>
       </c>
@@ -1103,7 +1777,7 @@
         <v>35.643900000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>30</v>
       </c>
@@ -1120,7 +1794,7 @@
         <v>70.843400000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>35</v>
       </c>
@@ -1137,7 +1811,7 @@
         <v>151.48500000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>40</v>
       </c>
@@ -1154,7 +1828,7 @@
         <v>266.22800000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>0</v>
       </c>
@@ -1171,7 +1845,7 @@
         <v>1.2986</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>0.05</v>
       </c>
@@ -1188,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>0.1</v>
       </c>
@@ -1205,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>0.15</v>
       </c>
@@ -1222,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>0.2</v>
       </c>
@@ -1240,11 +1914,281 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A74964-5615-DE4B-9673-BBEFA318D332}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.73333300000000001</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.35783599999999999</v>
+      </c>
+      <c r="D2" s="6">
+        <f>2*B2*C2/(B2+C2)</f>
+        <v>0.48097581105768211</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.73333300000000001</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.28254699999999999</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D17" si="0">2*B3*C3/(B3+C3)</f>
+        <v>0.40792424134937194</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.73333300000000001</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.26871899999999999</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.39331394064779074</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.73333300000000001</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.25828099999999998</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.38201554349373845</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.26666699999999999</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5.2227799999999998E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>8.7348120713163085E-2</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.43333300000000002</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.18362100000000001</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2579415606122985</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.73333300000000001</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.28254699999999999</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.40792424134937194</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.93333299999999997</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.387714</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.54784768560391872</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.460698</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.63079158046358652</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.53876599999999997</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.70025721909634087</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.57970500000000003</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.73394083072472394</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>35</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.60927900000000002</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.75720742021737686</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.64033899999999999</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.78073983487559584</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D72FBA4-9E33-3147-8577-A7B79FD81A4F}">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -1252,13 +2196,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1278,7 +2222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1298,7 +2242,7 @@
         <v>6.0314399999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>0.05</v>
       </c>
@@ -1318,7 +2262,7 @@
         <v>7.1126000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>0.1</v>
       </c>
@@ -1338,7 +2282,7 @@
         <v>6.93109E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>0.15</v>
       </c>
@@ -1358,7 +2302,7 @@
         <v>6.0730999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>0.2</v>
       </c>
@@ -1378,7 +2322,7 @@
         <v>5.8622099999999996E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1386,7 +2330,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -1394,7 +2338,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +2358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1434,7 +2378,7 @@
         <v>6.9903399999999996E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1454,7 +2398,7 @@
         <v>2.1780300000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1474,7 +2418,7 @@
         <v>6.93109E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>15</v>
       </c>
@@ -1494,7 +2438,7 @@
         <v>1.5303199999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -1514,7 +2458,7 @@
         <v>2.7239300000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>25</v>
       </c>
@@ -1534,7 +2478,7 @@
         <v>4.0188500000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>30</v>
       </c>
@@ -1554,7 +2498,7 @@
         <v>5.2812499999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>35</v>
       </c>
@@ -1574,7 +2518,7 @@
         <v>7.22521E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>40</v>
       </c>
@@ -1594,22 +2538,23 @@
         <v>9.3306899999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74BEF28-CB82-2D46-9160-4FBF227A53A8}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -1617,9 +2562,9 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +2581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -1653,7 +2598,7 @@
         <v>4.3110299999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="5">
         <v>0.05</v>
       </c>
@@ -1670,7 +2615,7 @@
         <v>4.1063200000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>0.1</v>
       </c>
@@ -1687,7 +2632,7 @@
         <v>3.2099600000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>0.15</v>
       </c>
@@ -1704,7 +2649,7 @@
         <v>3.1194099999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>0.2</v>
       </c>
@@ -1721,21 +2666,21 @@
         <v>2.9287399999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1752,7 +2697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1769,7 +2714,7 @@
         <v>1.16942E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1786,7 +2731,7 @@
         <v>0.41341099999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1803,7 +2748,7 @@
         <v>3.2099600000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>15</v>
       </c>
@@ -1820,7 +2765,7 @@
         <v>24.718399999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -1837,7 +2782,7 @@
         <v>71.598100000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>25</v>
       </c>
@@ -1854,7 +2799,7 @@
         <v>175.886</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>30</v>
       </c>
@@ -1871,7 +2816,7 @@
         <v>995.69823529999996</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>35</v>
       </c>
@@ -1886,7 +2831,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>40</v>
       </c>
@@ -1902,11 +2847,280 @@
       <c r="E18" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B90628F-C8C7-F048-89A6-0CFF7D282D32}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.43333300000000002</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.26141700000000001</v>
+      </c>
+      <c r="D2" s="6">
+        <f t="shared" ref="D2:D5" si="0">2*B2*C2/(B2+C2)</f>
+        <v>0.32610467898092843</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6.2743300000000002E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10847188927424774</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5.6279999999999997E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>9.8676251424563863E-2</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.36666700000000002</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.19233E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>4.1372883682891722E-2</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4.3569999999999998E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" ref="D9:D17" si="1">B9*C9*2/(B9+C9)</f>
+        <v>7.8580607344951189E-2</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5.4736699999999999E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="1"/>
+        <v>9.6296076388820165E-2</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5.6180000000000001E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="1"/>
+        <v>9.8522513043097032E-2</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6.8283300000000005E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11665297481246929</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12289462547608972</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.43333300000000002</v>
+      </c>
+      <c r="C14" s="6">
+        <v>7.8153299999999995E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.13242350361642136</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.43333300000000002</v>
+      </c>
+      <c r="C15" s="6">
+        <v>8.1216700000000003E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.13679485678876113</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>35</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.43333300000000002</v>
+      </c>
+      <c r="C16" s="6">
+        <v>8.4489999999999996E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.1414085707664588</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.43333300000000002</v>
+      </c>
+      <c r="C17" s="6">
+        <v>8.2486699999999996E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.13859187297848455</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D429849-04D2-6643-B654-823237AAE1C0}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -1914,15 +3128,15 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1933,7 +3147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>10</v>
       </c>
@@ -1944,7 +3158,7 @@
         <v>0.9516</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>50</v>
       </c>
@@ -1955,7 +3169,7 @@
         <v>0.96130649999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -1966,7 +3180,7 @@
         <v>0.96242499999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>500</v>
       </c>
@@ -1977,7 +3191,7 @@
         <v>0.98348999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>1000</v>
       </c>
@@ -1988,7 +3202,7 @@
         <v>0.99795</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>5000</v>
       </c>
@@ -1999,7 +3213,7 @@
         <v>0.99879700000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>10000</v>
       </c>
@@ -2010,13 +3224,13 @@
         <v>0.99904000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2027,7 +3241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2038,7 +3252,7 @@
         <v>5.7160299999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>50</v>
       </c>
@@ -2049,7 +3263,7 @@
         <v>6.0417600000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>100</v>
       </c>
@@ -2060,7 +3274,7 @@
         <v>6.39739E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>500</v>
       </c>
@@ -2071,7 +3285,7 @@
         <v>0.72414000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>1000</v>
       </c>
@@ -2082,7 +3296,7 @@
         <v>9.8110000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>5000</v>
       </c>
@@ -2093,7 +3307,7 @@
         <v>0.50262700000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>10000</v>
       </c>
@@ -2105,11 +3319,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887835F5-79A1-1E49-9723-0EC4F2074A0A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2117,9 +3332,9 @@
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2136,7 +3351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -2153,7 +3368,7 @@
         <v>6.93109E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -2170,7 +3385,7 @@
         <v>0.174264</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -2187,7 +3402,7 @@
         <v>3.2099600000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -2204,16 +3419,17 @@
         <v>58.354199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC728437-A2D7-7A4C-AA24-0AC3655AE2F9}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2221,9 +3437,9 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +3456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -2257,7 +3473,7 @@
         <v>2.7940999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>200</v>
       </c>
@@ -2274,7 +3490,7 @@
         <v>3.1719149999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>400</v>
       </c>
@@ -2291,7 +3507,7 @@
         <v>3.2099600000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>800</v>
       </c>
@@ -2308,7 +3524,7 @@
         <v>4.2220800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>1600</v>
       </c>
@@ -2326,11 +3542,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E2D3E7-2F9F-7048-B692-3105A7D7885C}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2338,9 +3555,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -2357,7 +3574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2374,7 +3591,7 @@
         <v>2.74246E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2391,7 +3608,7 @@
         <v>3.2099600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2409,654 +3626,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B924CD-0A7B-9E43-A22A-41118BA36D3C}">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>7.4177300000000004E-4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.1317300000000001E-3</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1.46535E-3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>7.5403399999999995E-2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>4.5216099999999997E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="B3" s="3">
-        <v>8.53935E-4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.4428100000000001E-3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.7677000000000001E-3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4.3211899999999998E-2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4.6265400000000002E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>8.8396999999999998E-4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.3386800000000001E-3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.7428700000000001E-3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.9852400000000003E-2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5.2072899999999998E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="B5" s="3">
-        <v>8.3083099999999997E-4</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.35286E-3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.6360000000000001E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3.4986700000000003E-2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4.1501899999999998E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.6285099999999999E-3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.63345E-3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2.6236499999999999E-3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3.69424E-2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.8029499999999998E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2.12802E-4</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2.27853E-4</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2.4616900000000002E-4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1.00506E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1.1821100000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3">
-        <v>6.8219799999999996E-4</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6.4325700000000005E-4</v>
-      </c>
-      <c r="D11" s="3">
-        <v>8.2962699999999999E-4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1.9436700000000001E-2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1.79378E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>8.8396999999999998E-4</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1.3386800000000001E-3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1.7428700000000001E-3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3.9852400000000003E-2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5.2072899999999998E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.34268E-3</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2.1368300000000002E-3</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2.73222E-3</v>
-      </c>
-      <c r="E13" s="3">
-        <v>6.2848200000000007E-2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>8.9144700000000007E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.4210900000000001E-3</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3.4103599999999999E-3</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4.7453E-3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>8.9515399999999995E-2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1.5247200000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.83271E-3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4.3848699999999999E-3</v>
-      </c>
-      <c r="D15" s="3">
-        <v>5.7045500000000001E-3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.104864</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2.0428399999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2.04754E-3</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5.2185399999999998E-3</v>
-      </c>
-      <c r="D16" s="3">
-        <v>6.6069099999999997E-3</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.13270199999999999</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2.9472499999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>35</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2.51176E-3</v>
-      </c>
-      <c r="C17" s="3">
-        <v>7.5586999999999998E-3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>9.7741400000000006E-3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.15165799999999999</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3.8052599999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>40</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2.9275E-3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>8.0362200000000002E-3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>9.9253399999999995E-3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.184277</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4.9853099999999997E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC99850F-415F-1B48-99DB-A77329AE63A0}">
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.15400700000000001</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.131166</v>
-      </c>
-      <c r="D2" s="3">
-        <v>17.365500000000001</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1.11924</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.39941199999999999</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.16685900000000001</v>
-      </c>
-      <c r="D3" s="3">
-        <v>16.910699999999999</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.12364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.49416599999999999</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.173039</v>
-      </c>
-      <c r="D4" s="3">
-        <v>13.741400000000001</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.1096999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.70229799999999998</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.18796499999999999</v>
-      </c>
-      <c r="D5" s="3">
-        <v>9.3579699999999999</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.1008800000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.83031999999999995</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.19081799999999999</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8.1314200000000003</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.0696699999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3.7104099999999999E-3</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9.3870299999999993E-3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5.2889199999999997E-2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3.83329E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.10263600000000001</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8.07118E-2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1.9792799999999999</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.108099</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.49416599999999999</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.173039</v>
-      </c>
-      <c r="D12" s="3">
-        <v>13.741400000000001</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1.1096999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.4153</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.31789099999999998</v>
-      </c>
-      <c r="D13" s="3">
-        <v>36.399500000000003</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4.5809100000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2.9925999999999999</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.62106700000000004</v>
-      </c>
-      <c r="D14" s="3">
-        <v>82.889899999999997</v>
-      </c>
-      <c r="E14" s="3">
-        <v>14.265499999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3">
-        <v>4.8463399999999996</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.72463500000000003</v>
-      </c>
-      <c r="D15" s="3">
-        <v>147.20599999999999</v>
-      </c>
-      <c r="E15" s="3">
-        <v>35.1203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3">
-        <v>7.31379</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.86313200000000001</v>
-      </c>
-      <c r="D16" s="3">
-        <v>208.929</v>
-      </c>
-      <c r="E16" s="3">
-        <v>77.808899999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>35</v>
-      </c>
-      <c r="B17" s="3">
-        <v>11.131</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1.13941</v>
-      </c>
-      <c r="D17" s="3">
-        <v>347.74799999999999</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>40</v>
-      </c>
-      <c r="B18" s="3">
-        <v>13.792400000000001</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.20336</v>
-      </c>
-      <c r="D18" s="3">
-        <v>393.51400000000001</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>